--- a/my_project/output_result_data/calc_correlations_result_data/corr_binding_approach_shops_data.xlsx
+++ b/my_project/output_result_data/calc_correlations_result_data/corr_binding_approach_shops_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G93"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -471,90 +471,2304 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="n">
-        <v>1</v>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Store 1</t>
+        </is>
       </c>
       <c r="B2" t="n">
-        <v>50.4</v>
+        <v>50.415258</v>
       </c>
       <c r="C2" t="n">
-        <v>30.35</v>
+        <v>30.522344</v>
       </c>
       <c r="D2" t="n">
-        <v>5</v>
+        <v>2.182984967003582</v>
       </c>
       <c r="E2" t="n">
-        <v>1.31857045445274</v>
+        <v>1.555884063417384</v>
       </c>
       <c r="F2" t="n">
-        <v>9</v>
+        <v>412.5509236128018</v>
       </c>
       <c r="G2" t="n">
-        <v>3</v>
+        <v>2.266763316553856</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="n">
-        <v>2</v>
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Store 2</t>
+        </is>
       </c>
       <c r="B3" t="n">
-        <v>50.45</v>
+        <v>50.495292</v>
       </c>
       <c r="C3" t="n">
-        <v>30.45</v>
+        <v>30.512299</v>
       </c>
       <c r="D3" t="n">
-        <v>3</v>
+        <v>2.636888906983799</v>
       </c>
       <c r="E3" t="n">
-        <v>0.6590976878507164</v>
+        <v>0.5269650585014904</v>
       </c>
       <c r="F3" t="n">
-        <v>4</v>
+        <v>170.4104773369512</v>
       </c>
       <c r="G3" t="n">
-        <v>2</v>
+        <v>2.334390100506181</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="n">
-        <v>3</v>
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Store 3</t>
+        </is>
       </c>
       <c r="B4" t="n">
-        <v>50.5</v>
+        <v>50.414301</v>
       </c>
       <c r="C4" t="n">
-        <v>30.55</v>
+        <v>30.650869</v>
       </c>
       <c r="D4" t="n">
-        <v>1</v>
+        <v>2.503790683057181</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>0.3756375651490761</v>
       </c>
       <c r="F4" t="n">
-        <v>1</v>
+        <v>93.23616690654964</v>
       </c>
       <c r="G4" t="n">
-        <v>1</v>
+        <v>2.51989640287972</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="n">
-        <v>3</v>
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Store 4</t>
+        </is>
       </c>
       <c r="B5" t="n">
-        <v>50.51</v>
+        <v>50.471703</v>
       </c>
       <c r="C5" t="n">
-        <v>30.56</v>
+        <v>30.47874</v>
       </c>
       <c r="D5" t="n">
-        <v>1</v>
-      </c>
-      <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr"/>
-      <c r="G5" t="inlineStr"/>
+        <v>2.376576957056512</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.6922199983784504</v>
+      </c>
+      <c r="F5" t="n">
+        <v>256.0777932364393</v>
+      </c>
+      <c r="G5" t="n">
+        <v>2.081933278345035</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Store 5</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>50.532248</v>
+      </c>
+      <c r="C6" t="n">
+        <v>30.608288</v>
+      </c>
+      <c r="D6" t="n">
+        <v>2.340840549812332</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.7015359270070849</v>
+      </c>
+      <c r="F6" t="n">
+        <v>247.252027713374</v>
+      </c>
+      <c r="G6" t="n">
+        <v>2.49749522942802</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Store 6</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>50.441108</v>
+      </c>
+      <c r="C7" t="n">
+        <v>30.520819</v>
+      </c>
+      <c r="D7" t="n">
+        <v>2.15956719323362</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.7546067567675219</v>
+      </c>
+      <c r="F7" t="n">
+        <v>893.5605132939996</v>
+      </c>
+      <c r="G7" t="n">
+        <v>1.889134277577166</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Store 7</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>50.518478</v>
+      </c>
+      <c r="C8" t="n">
+        <v>30.45828</v>
+      </c>
+      <c r="D8" t="n">
+        <v>2.405687786672777</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.4423684469186583</v>
+      </c>
+      <c r="F8" t="n">
+        <v>167.856999565512</v>
+      </c>
+      <c r="G8" t="n">
+        <v>2.268337831966379</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Store 8</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>50.49556</v>
+      </c>
+      <c r="C9" t="n">
+        <v>30.358346</v>
+      </c>
+      <c r="D9" t="n">
+        <v>2.3654879848909</v>
+      </c>
+      <c r="E9" t="n">
+        <v>1.591910975164802</v>
+      </c>
+      <c r="F9" t="n">
+        <v>136.7866105560617</v>
+      </c>
+      <c r="G9" t="n">
+        <v>2.137290789938464</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Store 9</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>50.462101</v>
+      </c>
+      <c r="C10" t="n">
+        <v>30.481258</v>
+      </c>
+      <c r="D10" t="n">
+        <v>2.781108835729466</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.5076407256295041</v>
+      </c>
+      <c r="F10" t="n">
+        <v>308.9766509245752</v>
+      </c>
+      <c r="G10" t="n">
+        <v>2.101881979078743</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Store 10</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>50.445203</v>
+      </c>
+      <c r="C11" t="n">
+        <v>30.444036</v>
+      </c>
+      <c r="D11" t="n">
+        <v>2.62705846400099</v>
+      </c>
+      <c r="E11" t="n">
+        <v>1.085155246051337</v>
+      </c>
+      <c r="F11" t="n">
+        <v>762.0423288412494</v>
+      </c>
+      <c r="G11" t="n">
+        <v>2.140568339441712</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Store 11</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>50.411143</v>
+      </c>
+      <c r="C12" t="n">
+        <v>30.40476</v>
+      </c>
+      <c r="D12" t="n">
+        <v>2.182414652434554</v>
+      </c>
+      <c r="E12" t="n">
+        <v>1.603658218748081</v>
+      </c>
+      <c r="F12" t="n">
+        <v>605.0084523918839</v>
+      </c>
+      <c r="G12" t="n">
+        <v>1.957956156608039</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Store 12</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>50.40711</v>
+      </c>
+      <c r="C13" t="n">
+        <v>30.66618</v>
+      </c>
+      <c r="D13" t="n">
+        <v>2.582744965691277</v>
+      </c>
+      <c r="E13" t="n">
+        <v>1.490088876560463</v>
+      </c>
+      <c r="F13" t="n">
+        <v>339.5098274463416</v>
+      </c>
+      <c r="G13" t="n">
+        <v>2.325409777029737</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Store 13</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>50.493389</v>
+      </c>
+      <c r="C14" t="n">
+        <v>30.576474</v>
+      </c>
+      <c r="D14" t="n">
+        <v>2.34966598409663</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.6508457348060288</v>
+      </c>
+      <c r="F14" t="n">
+        <v>119.563195280721</v>
+      </c>
+      <c r="G14" t="n">
+        <v>2.490899901681688</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Store 14</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>50.500799</v>
+      </c>
+      <c r="C15" t="n">
+        <v>30.450873</v>
+      </c>
+      <c r="D15" t="n">
+        <v>2.351022852584124</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.4978830319103847</v>
+      </c>
+      <c r="F15" t="n">
+        <v>110.8372429491116</v>
+      </c>
+      <c r="G15" t="n">
+        <v>2.131485441329069</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Store 15</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>50.520226</v>
+      </c>
+      <c r="C16" t="n">
+        <v>30.51452</v>
+      </c>
+      <c r="D16" t="n">
+        <v>2.754348335711019</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.4446141825778798</v>
+      </c>
+      <c r="F16" t="n">
+        <v>170.3525774218905</v>
+      </c>
+      <c r="G16" t="n">
+        <v>2.399332076364655</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Store 16</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>50.509914</v>
+      </c>
+      <c r="C17" t="n">
+        <v>30.50591</v>
+      </c>
+      <c r="D17" t="n">
+        <v>2.565965817446667</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.3698185250734031</v>
+      </c>
+      <c r="F17" t="n">
+        <v>114.4855624144193</v>
+      </c>
+      <c r="G17" t="n">
+        <v>2.385115883633736</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Store 17</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>50.497957</v>
+      </c>
+      <c r="C18" t="n">
+        <v>30.517891</v>
+      </c>
+      <c r="D18" t="n">
+        <v>2.294025094095323</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.463546151402067</v>
+      </c>
+      <c r="F18" t="n">
+        <v>92.66167265389281</v>
+      </c>
+      <c r="G18" t="n">
+        <v>2.438465069839284</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Store 18</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>50.505198</v>
+      </c>
+      <c r="C19" t="n">
+        <v>30.512144</v>
+      </c>
+      <c r="D19" t="n">
+        <v>2.401745082237063</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.2346917793355788</v>
+      </c>
+      <c r="F19" t="n">
+        <v>49.83571013535231</v>
+      </c>
+      <c r="G19" t="n">
+        <v>2.373129054064396</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Store 19</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>50.462079</v>
+      </c>
+      <c r="C20" t="n">
+        <v>30.494244</v>
+      </c>
+      <c r="D20" t="n">
+        <v>2.26150077319828</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.3756761788330737</v>
+      </c>
+      <c r="F20" t="n">
+        <v>153.9261890645267</v>
+      </c>
+      <c r="G20" t="n">
+        <v>2.167974493866573</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Store 20</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>50.431315</v>
+      </c>
+      <c r="C21" t="n">
+        <v>30.383651</v>
+      </c>
+      <c r="D21" t="n">
+        <v>2.51067903103221</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.94361702745566</v>
+      </c>
+      <c r="F21" t="n">
+        <v>550.3559605659048</v>
+      </c>
+      <c r="G21" t="n">
+        <v>2.264839343892612</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Store 21</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>50.44743</v>
+      </c>
+      <c r="C22" t="n">
+        <v>30.49444</v>
+      </c>
+      <c r="D22" t="n">
+        <v>2.50745106090197</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.5749503000954396</v>
+      </c>
+      <c r="F22" t="n">
+        <v>516.0778745748296</v>
+      </c>
+      <c r="G22" t="n">
+        <v>1.911399535462332</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Store 22</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>50.405393</v>
+      </c>
+      <c r="C23" t="n">
+        <v>30.631846</v>
+      </c>
+      <c r="D23" t="n">
+        <v>2.230448921378274</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0.4373697003890192</v>
+      </c>
+      <c r="F23" t="n">
+        <v>202.2494472477925</v>
+      </c>
+      <c r="G23" t="n">
+        <v>2.592941631381955</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Store 23</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>50.464371</v>
+      </c>
+      <c r="C24" t="n">
+        <v>30.610285</v>
+      </c>
+      <c r="D24" t="n">
+        <v>2.458184435570263</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0.8285821510129151</v>
+      </c>
+      <c r="F24" t="n">
+        <v>424.7911558764919</v>
+      </c>
+      <c r="G24" t="n">
+        <v>2.334017339980725</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Store 24</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>50.405591</v>
+      </c>
+      <c r="C25" t="n">
+        <v>30.611193</v>
+      </c>
+      <c r="D25" t="n">
+        <v>2.608097946325279</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.5607314228631708</v>
+      </c>
+      <c r="F25" t="n">
+        <v>171.47714030654</v>
+      </c>
+      <c r="G25" t="n">
+        <v>2.679330317289687</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Store 25</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>50.399276</v>
+      </c>
+      <c r="C26" t="n">
+        <v>30.616704</v>
+      </c>
+      <c r="D26" t="n">
+        <v>2.742175043223677</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0.7525435798296588</v>
+      </c>
+      <c r="F26" t="n">
+        <v>263.3670843961395</v>
+      </c>
+      <c r="G26" t="n">
+        <v>2.582030239177838</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Store 26</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>50.470626</v>
+      </c>
+      <c r="C27" t="n">
+        <v>30.461664</v>
+      </c>
+      <c r="D27" t="n">
+        <v>2.014940349792937</v>
+      </c>
+      <c r="E27" t="n">
+        <v>1.235029682988136</v>
+      </c>
+      <c r="F27" t="n">
+        <v>572.2183288197879</v>
+      </c>
+      <c r="G27" t="n">
+        <v>2.000763387481776</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Store 27</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>50.414054</v>
+      </c>
+      <c r="C28" t="n">
+        <v>30.636607</v>
+      </c>
+      <c r="D28" t="n">
+        <v>2.529943401658669</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0.4076854346659421</v>
+      </c>
+      <c r="F28" t="n">
+        <v>172.0649800683188</v>
+      </c>
+      <c r="G28" t="n">
+        <v>2.607045152550284</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Store 28</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>50.41074</v>
+      </c>
+      <c r="C29" t="n">
+        <v>30.545757</v>
+      </c>
+      <c r="D29" t="n">
+        <v>2.308777773664721</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0.9292847669701929</v>
+      </c>
+      <c r="F29" t="n">
+        <v>532.983760700371</v>
+      </c>
+      <c r="G29" t="n">
+        <v>2.166600653253541</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Store 29</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>50.502558</v>
+      </c>
+      <c r="C30" t="n">
+        <v>30.605179</v>
+      </c>
+      <c r="D30" t="n">
+        <v>2.631950826259217</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0.6697112784648674</v>
+      </c>
+      <c r="F30" t="n">
+        <v>207.795648975309</v>
+      </c>
+      <c r="G30" t="n">
+        <v>2.416228476457081</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Store 30</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>50.513155</v>
+      </c>
+      <c r="C31" t="n">
+        <v>30.623016</v>
+      </c>
+      <c r="D31" t="n">
+        <v>2.515078675075923</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0.3676442172464044</v>
+      </c>
+      <c r="F31" t="n">
+        <v>80.55300569377511</v>
+      </c>
+      <c r="G31" t="n">
+        <v>2.44100017253864</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Store 31</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>50.507233</v>
+      </c>
+      <c r="C32" t="n">
+        <v>30.44086</v>
+      </c>
+      <c r="D32" t="n">
+        <v>2.259115844185066</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0.5527681361879657</v>
+      </c>
+      <c r="F32" t="n">
+        <v>231.257880859156</v>
+      </c>
+      <c r="G32" t="n">
+        <v>2.046529919107575</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Store 32</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>50.417252</v>
+      </c>
+      <c r="C33" t="n">
+        <v>30.618417</v>
+      </c>
+      <c r="D33" t="n">
+        <v>2.270911639410481</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0.6767742280477672</v>
+      </c>
+      <c r="F33" t="n">
+        <v>129.7287994659407</v>
+      </c>
+      <c r="G33" t="n">
+        <v>2.647526519713076</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Store 33</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>50.505279</v>
+      </c>
+      <c r="C34" t="n">
+        <v>30.453488</v>
+      </c>
+      <c r="D34" t="n">
+        <v>2.431685344686012</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0.3956703839028865</v>
+      </c>
+      <c r="F34" t="n">
+        <v>214.8269640444023</v>
+      </c>
+      <c r="G34" t="n">
+        <v>2.148269640444023</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Store 34</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>50.401534</v>
+      </c>
+      <c r="C35" t="n">
+        <v>30.564091</v>
+      </c>
+      <c r="D35" t="n">
+        <v>2.498586208817518</v>
+      </c>
+      <c r="E35" t="n">
+        <v>2.080101868063189</v>
+      </c>
+      <c r="F35" t="n">
+        <v>97.25192630101787</v>
+      </c>
+      <c r="G35" t="n">
+        <v>2.114172310891693</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Store 35</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>50.451393</v>
+      </c>
+      <c r="C36" t="n">
+        <v>30.63235</v>
+      </c>
+      <c r="D36" t="n">
+        <v>2.297322714205303</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0.9716841369454354</v>
+      </c>
+      <c r="F36" t="n">
+        <v>676.3615508790574</v>
+      </c>
+      <c r="G36" t="n">
+        <v>2.031115768405578</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Store 36</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>50.492563</v>
+      </c>
+      <c r="C37" t="n">
+        <v>30.599994</v>
+      </c>
+      <c r="D37" t="n">
+        <v>2.516667559099043</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0.411275102360126</v>
+      </c>
+      <c r="F37" t="n">
+        <v>156.2025547149539</v>
+      </c>
+      <c r="G37" t="n">
+        <v>2.231465067356484</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Store 37</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>50.373832</v>
+      </c>
+      <c r="C38" t="n">
+        <v>30.446797</v>
+      </c>
+      <c r="D38" t="n">
+        <v>2.495821753385906</v>
+      </c>
+      <c r="E38" t="n">
+        <v>2.220009591993653</v>
+      </c>
+      <c r="F38" t="n">
+        <v>632.167882416698</v>
+      </c>
+      <c r="G38" t="n">
+        <v>1.957176106553245</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Store 38</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>50.424666</v>
+      </c>
+      <c r="C39" t="n">
+        <v>30.383076</v>
+      </c>
+      <c r="D39" t="n">
+        <v>2.378034322457331</v>
+      </c>
+      <c r="E39" t="n">
+        <v>0.8691825749138948</v>
+      </c>
+      <c r="F39" t="n">
+        <v>378.1858485210256</v>
+      </c>
+      <c r="G39" t="n">
+        <v>2.186045367173558</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Store 39</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>50.384299</v>
+      </c>
+      <c r="C40" t="n">
+        <v>30.45815</v>
+      </c>
+      <c r="D40" t="n">
+        <v>2.573335840066068</v>
+      </c>
+      <c r="E40" t="n">
+        <v>1.462380735562182</v>
+      </c>
+      <c r="F40" t="n">
+        <v>831.9242904465143</v>
+      </c>
+      <c r="G40" t="n">
+        <v>2.189274448543459</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Store 40</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>50.4272</v>
+      </c>
+      <c r="C41" t="n">
+        <v>30.530629</v>
+      </c>
+      <c r="D41" t="n">
+        <v>2.306210508167761</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0.9602521630067394</v>
+      </c>
+      <c r="F41" t="n">
+        <v>687.8498947149689</v>
+      </c>
+      <c r="G41" t="n">
+        <v>2.169873484905264</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Store 41</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>50.516616</v>
+      </c>
+      <c r="C42" t="n">
+        <v>30.601924</v>
+      </c>
+      <c r="D42" t="n">
+        <v>2.81630759943194</v>
+      </c>
+      <c r="E42" t="n">
+        <v>0.4903609850451628</v>
+      </c>
+      <c r="F42" t="n">
+        <v>223.7715274810493</v>
+      </c>
+      <c r="G42" t="n">
+        <v>2.406145456785477</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Store 42</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>50.435939</v>
+      </c>
+      <c r="C43" t="n">
+        <v>30.489985</v>
+      </c>
+      <c r="D43" t="n">
+        <v>2.338257230246255</v>
+      </c>
+      <c r="E43" t="n">
+        <v>0.9620822776447954</v>
+      </c>
+      <c r="F43" t="n">
+        <v>659.1789528009347</v>
+      </c>
+      <c r="G43" t="n">
+        <v>2.059934227502921</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Store 43</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>50.484819</v>
+      </c>
+      <c r="C44" t="n">
+        <v>30.639434</v>
+      </c>
+      <c r="D44" t="n">
+        <v>2.430236353411511</v>
+      </c>
+      <c r="E44" t="n">
+        <v>1.098338189042889</v>
+      </c>
+      <c r="F44" t="n">
+        <v>365.0275651199829</v>
+      </c>
+      <c r="G44" t="n">
+        <v>2.253256574814709</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Store 44</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>50.460746</v>
+      </c>
+      <c r="C45" t="n">
+        <v>30.642653</v>
+      </c>
+      <c r="D45" t="n">
+        <v>2.310693312343361</v>
+      </c>
+      <c r="E45" t="n">
+        <v>1.784378809176166</v>
+      </c>
+      <c r="F45" t="n">
+        <v>321.3300583118495</v>
+      </c>
+      <c r="G45" t="n">
+        <v>2.114013541525326</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Store 45</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>50.416525</v>
+      </c>
+      <c r="C46" t="n">
+        <v>30.519005</v>
+      </c>
+      <c r="D46" t="n">
+        <v>2.367914738793753</v>
+      </c>
+      <c r="E46" t="n">
+        <v>1.118826625063243</v>
+      </c>
+      <c r="F46" t="n">
+        <v>331.1531720576009</v>
+      </c>
+      <c r="G46" t="n">
+        <v>2.178639289852637</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Store 46</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>50.503042</v>
+      </c>
+      <c r="C47" t="n">
+        <v>30.506489</v>
+      </c>
+      <c r="D47" t="n">
+        <v>2.370142847051102</v>
+      </c>
+      <c r="E47" t="n">
+        <v>0.4150455121639237</v>
+      </c>
+      <c r="F47" t="n">
+        <v>117.5156386939096</v>
+      </c>
+      <c r="G47" t="n">
+        <v>2.350312773878192</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Store 47</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>50.505331</v>
+      </c>
+      <c r="C48" t="n">
+        <v>30.491009</v>
+      </c>
+      <c r="D48" t="n">
+        <v>2.363235804483694</v>
+      </c>
+      <c r="E48" t="n">
+        <v>0.401326677359964</v>
+      </c>
+      <c r="F48" t="n">
+        <v>123.3847183208121</v>
+      </c>
+      <c r="G48" t="n">
+        <v>2.372783044631002</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Store 48</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>50.517409</v>
+      </c>
+      <c r="C49" t="n">
+        <v>30.616649</v>
+      </c>
+      <c r="D49" t="n">
+        <v>2.636788689034375</v>
+      </c>
+      <c r="E49" t="n">
+        <v>0.6255401778823841</v>
+      </c>
+      <c r="F49" t="n">
+        <v>230.8591922155824</v>
+      </c>
+      <c r="G49" t="n">
+        <v>2.593923508040252</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Store 49</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>50.508721</v>
+      </c>
+      <c r="C50" t="n">
+        <v>30.607418</v>
+      </c>
+      <c r="D50" t="n">
+        <v>2.574147064150723</v>
+      </c>
+      <c r="E50" t="n">
+        <v>0.4863184604028305</v>
+      </c>
+      <c r="F50" t="n">
+        <v>204.2559729706853</v>
+      </c>
+      <c r="G50" t="n">
+        <v>2.347769804260751</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Store 50</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>50.533542</v>
+      </c>
+      <c r="C51" t="n">
+        <v>30.600594</v>
+      </c>
+      <c r="D51" t="n">
+        <v>2.313656346618032</v>
+      </c>
+      <c r="E51" t="n">
+        <v>0.5008377575646211</v>
+      </c>
+      <c r="F51" t="n">
+        <v>142.9243383099806</v>
+      </c>
+      <c r="G51" t="n">
+        <v>2.507444531754045</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Store 51</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>50.522658</v>
+      </c>
+      <c r="C52" t="n">
+        <v>30.451686</v>
+      </c>
+      <c r="D52" t="n">
+        <v>2.368472838440362</v>
+      </c>
+      <c r="E52" t="n">
+        <v>0.4692496331279359</v>
+      </c>
+      <c r="F52" t="n">
+        <v>78.83506540192295</v>
+      </c>
+      <c r="G52" t="n">
+        <v>2.252430440054941</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Store 52</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>50.397688</v>
+      </c>
+      <c r="C53" t="n">
+        <v>30.638267</v>
+      </c>
+      <c r="D53" t="n">
+        <v>2.60788374435699</v>
+      </c>
+      <c r="E53" t="n">
+        <v>0.7596873314374303</v>
+      </c>
+      <c r="F53" t="n">
+        <v>347.0229169434498</v>
+      </c>
+      <c r="G53" t="n">
+        <v>2.533013992287955</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Store 53</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>50.519076</v>
+      </c>
+      <c r="C54" t="n">
+        <v>30.501747</v>
+      </c>
+      <c r="D54" t="n">
+        <v>2.156246190397344</v>
+      </c>
+      <c r="E54" t="n">
+        <v>0.317132989936344</v>
+      </c>
+      <c r="F54" t="n">
+        <v>85.42552932600675</v>
+      </c>
+      <c r="G54" t="n">
+        <v>2.24804024542123</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Store 54</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>50.512704</v>
+      </c>
+      <c r="C55" t="n">
+        <v>30.496875</v>
+      </c>
+      <c r="D55" t="n">
+        <v>2.595606434865603</v>
+      </c>
+      <c r="E55" t="n">
+        <v>0.3947364401718058</v>
+      </c>
+      <c r="F55" t="n">
+        <v>126.7627327151366</v>
+      </c>
+      <c r="G55" t="n">
+        <v>2.437744859906473</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Store 55</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>50.509463</v>
+      </c>
+      <c r="C56" t="n">
+        <v>30.497693</v>
+      </c>
+      <c r="D56" t="n">
+        <v>2.654465333520146</v>
+      </c>
+      <c r="E56" t="n">
+        <v>0.2683919616975327</v>
+      </c>
+      <c r="F56" t="n">
+        <v>55.59517813142384</v>
+      </c>
+      <c r="G56" t="n">
+        <v>2.417181657887993</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Store 56</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>50.519204</v>
+      </c>
+      <c r="C57" t="n">
+        <v>30.4985</v>
+      </c>
+      <c r="D57" t="n">
+        <v>2.554852434372055</v>
+      </c>
+      <c r="E57" t="n">
+        <v>0.558448135564635</v>
+      </c>
+      <c r="F57" t="n">
+        <v>151.4225094965423</v>
+      </c>
+      <c r="G57" t="n">
+        <v>2.329577069177573</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Store 57</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>50.471374</v>
+      </c>
+      <c r="C58" t="n">
+        <v>30.502307</v>
+      </c>
+      <c r="D58" t="n">
+        <v>2.345569756056392</v>
+      </c>
+      <c r="E58" t="n">
+        <v>0.3954062487339601</v>
+      </c>
+      <c r="F58" t="n">
+        <v>157.7637653951211</v>
+      </c>
+      <c r="G58" t="n">
+        <v>1.900768257772544</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Store 58</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>50.427943</v>
+      </c>
+      <c r="C59" t="n">
+        <v>30.593448</v>
+      </c>
+      <c r="D59" t="n">
+        <v>2.52608069180203</v>
+      </c>
+      <c r="E59" t="n">
+        <v>0.7125309111023458</v>
+      </c>
+      <c r="F59" t="n">
+        <v>250.9485467479132</v>
+      </c>
+      <c r="G59" t="n">
+        <v>2.389986159503935</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Store 59</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>50.456693</v>
+      </c>
+      <c r="C60" t="n">
+        <v>30.38344</v>
+      </c>
+      <c r="D60" t="n">
+        <v>2.506234359612126</v>
+      </c>
+      <c r="E60" t="n">
+        <v>0.7981424727569201</v>
+      </c>
+      <c r="F60" t="n">
+        <v>419.527875464451</v>
+      </c>
+      <c r="G60" t="n">
+        <v>2.118827653860864</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>Store 60</t>
+        </is>
+      </c>
+      <c r="B61" t="n">
+        <v>50.451306</v>
+      </c>
+      <c r="C61" t="n">
+        <v>30.467988</v>
+      </c>
+      <c r="D61" t="n">
+        <v>2.725012725341157</v>
+      </c>
+      <c r="E61" t="n">
+        <v>0.5401538202710744</v>
+      </c>
+      <c r="F61" t="n">
+        <v>305.5208296652619</v>
+      </c>
+      <c r="G61" t="n">
+        <v>2.182291640466156</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>Store 61</t>
+        </is>
+      </c>
+      <c r="B62" t="n">
+        <v>50.453158</v>
+      </c>
+      <c r="C62" t="n">
+        <v>30.447263</v>
+      </c>
+      <c r="D62" t="n">
+        <v>2.56925683332861</v>
+      </c>
+      <c r="E62" t="n">
+        <v>0.9806493324718679</v>
+      </c>
+      <c r="F62" t="n">
+        <v>373.9330728578445</v>
+      </c>
+      <c r="G62" t="n">
+        <v>2.112616230835279</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>Store 62</t>
+        </is>
+      </c>
+      <c r="B63" t="n">
+        <v>50.459056</v>
+      </c>
+      <c r="C63" t="n">
+        <v>30.39885</v>
+      </c>
+      <c r="D63" t="n">
+        <v>2.666237095895804</v>
+      </c>
+      <c r="E63" t="n">
+        <v>0.9823109959739985</v>
+      </c>
+      <c r="F63" t="n">
+        <v>260.9282655081609</v>
+      </c>
+      <c r="G63" t="n">
+        <v>2.087426124065287</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>Store 63</t>
+        </is>
+      </c>
+      <c r="B64" t="n">
+        <v>50.484534</v>
+      </c>
+      <c r="C64" t="n">
+        <v>30.595457</v>
+      </c>
+      <c r="D64" t="n">
+        <v>2.619302075875608</v>
+      </c>
+      <c r="E64" t="n">
+        <v>0.561475153789774</v>
+      </c>
+      <c r="F64" t="n">
+        <v>229.6654329158011</v>
+      </c>
+      <c r="G64" t="n">
+        <v>2.032437459431868</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>Store 64</t>
+        </is>
+      </c>
+      <c r="B65" t="n">
+        <v>50.519427</v>
+      </c>
+      <c r="C65" t="n">
+        <v>30.465297</v>
+      </c>
+      <c r="D65" t="n">
+        <v>2.550472957106563</v>
+      </c>
+      <c r="E65" t="n">
+        <v>0.4474875260820641</v>
+      </c>
+      <c r="F65" t="n">
+        <v>86.57731045850088</v>
+      </c>
+      <c r="G65" t="n">
+        <v>2.473637441671454</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>Store 65</t>
+        </is>
+      </c>
+      <c r="B66" t="n">
+        <v>50.525035</v>
+      </c>
+      <c r="C66" t="n">
+        <v>30.50362</v>
+      </c>
+      <c r="D66" t="n">
+        <v>2.36078268987328</v>
+      </c>
+      <c r="E66" t="n">
+        <v>0.3464606696537045</v>
+      </c>
+      <c r="F66" t="n">
+        <v>101.2861604506018</v>
+      </c>
+      <c r="G66" t="n">
+        <v>2.355492103502368</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>Store 66</t>
+        </is>
+      </c>
+      <c r="B67" t="n">
+        <v>50.472025</v>
+      </c>
+      <c r="C67" t="n">
+        <v>30.337587</v>
+      </c>
+      <c r="D67" t="n">
+        <v>2.540954808926133</v>
+      </c>
+      <c r="E67" t="n">
+        <v>0.9046649443333928</v>
+      </c>
+      <c r="F67" t="n">
+        <v>234.6287105324752</v>
+      </c>
+      <c r="G67" t="n">
+        <v>2.300281475808581</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>Store 67</t>
+        </is>
+      </c>
+      <c r="B68" t="n">
+        <v>50.510505</v>
+      </c>
+      <c r="C68" t="n">
+        <v>30.419726</v>
+      </c>
+      <c r="D68" t="n">
+        <v>2.567144045195657</v>
+      </c>
+      <c r="E68" t="n">
+        <v>0.5811551816655988</v>
+      </c>
+      <c r="F68" t="n">
+        <v>311.5088852050883</v>
+      </c>
+      <c r="G68" t="n">
+        <v>2.359915797008245</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>Store 68</t>
+        </is>
+      </c>
+      <c r="B69" t="n">
+        <v>50.504688</v>
+      </c>
+      <c r="C69" t="n">
+        <v>30.428548</v>
+      </c>
+      <c r="D69" t="n">
+        <v>2.508798965403905</v>
+      </c>
+      <c r="E69" t="n">
+        <v>0.8821799657607026</v>
+      </c>
+      <c r="F69" t="n">
+        <v>297.0630854284023</v>
+      </c>
+      <c r="G69" t="n">
+        <v>2.320805354909393</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>Store 69</t>
+        </is>
+      </c>
+      <c r="B70" t="n">
+        <v>50.504707</v>
+      </c>
+      <c r="C70" t="n">
+        <v>30.437289</v>
+      </c>
+      <c r="D70" t="n">
+        <v>2.668199484198662</v>
+      </c>
+      <c r="E70" t="n">
+        <v>0.5324802204402374</v>
+      </c>
+      <c r="F70" t="n">
+        <v>140.0175843418868</v>
+      </c>
+      <c r="G70" t="n">
+        <v>2.333626405698113</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>Store 70</t>
+        </is>
+      </c>
+      <c r="B71" t="n">
+        <v>50.486647</v>
+      </c>
+      <c r="C71" t="n">
+        <v>30.585121</v>
+      </c>
+      <c r="D71" t="n">
+        <v>2.406880670049125</v>
+      </c>
+      <c r="E71" t="n">
+        <v>0.3385156277098283</v>
+      </c>
+      <c r="F71" t="n">
+        <v>53.3427727351815</v>
+      </c>
+      <c r="G71" t="n">
+        <v>2.319250988486152</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>Store 71</t>
+        </is>
+      </c>
+      <c r="B72" t="n">
+        <v>50.491599</v>
+      </c>
+      <c r="C72" t="n">
+        <v>30.5833</v>
+      </c>
+      <c r="D72" t="n">
+        <v>2.249687427805302</v>
+      </c>
+      <c r="E72" t="n">
+        <v>0.4761614597418199</v>
+      </c>
+      <c r="F72" t="n">
+        <v>103.539709043093</v>
+      </c>
+      <c r="G72" t="n">
+        <v>2.353175205524842</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>Store 72</t>
+        </is>
+      </c>
+      <c r="B73" t="n">
+        <v>50.412018</v>
+      </c>
+      <c r="C73" t="n">
+        <v>30.644346</v>
+      </c>
+      <c r="D73" t="n">
+        <v>2.533772058384718</v>
+      </c>
+      <c r="E73" t="n">
+        <v>0.4668450384283998</v>
+      </c>
+      <c r="F73" t="n">
+        <v>128.3968371270981</v>
+      </c>
+      <c r="G73" t="n">
+        <v>2.517585041707806</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>Store 73</t>
+        </is>
+      </c>
+      <c r="B74" t="n">
+        <v>50.439748</v>
+      </c>
+      <c r="C74" t="n">
+        <v>30.592387</v>
+      </c>
+      <c r="D74" t="n">
+        <v>2.395151591504542</v>
+      </c>
+      <c r="E74" t="n">
+        <v>0.9548531366586688</v>
+      </c>
+      <c r="F74" t="n">
+        <v>333.3711061973702</v>
+      </c>
+      <c r="G74" t="n">
+        <v>2.283363741077878</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>Store 74</t>
+        </is>
+      </c>
+      <c r="B75" t="n">
+        <v>50.462439</v>
+      </c>
+      <c r="C75" t="n">
+        <v>30.519044</v>
+      </c>
+      <c r="D75" t="n">
+        <v>2.531478917042255</v>
+      </c>
+      <c r="E75" t="n">
+        <v>0.6759374449795127</v>
+      </c>
+      <c r="F75" t="n">
+        <v>380.1454046053139</v>
+      </c>
+      <c r="G75" t="n">
+        <v>1.845366041773368</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>Store 75</t>
+        </is>
+      </c>
+      <c r="B76" t="n">
+        <v>50.456052</v>
+      </c>
+      <c r="C76" t="n">
+        <v>30.497252</v>
+      </c>
+      <c r="D76" t="n">
+        <v>2.505149978319906</v>
+      </c>
+      <c r="E76" t="n">
+        <v>0.5725563857306935</v>
+      </c>
+      <c r="F76" t="n">
+        <v>492.6399178165203</v>
+      </c>
+      <c r="G76" t="n">
+        <v>1.916886839752997</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>Store 76</t>
+        </is>
+      </c>
+      <c r="B77" t="n">
+        <v>50.496642</v>
+      </c>
+      <c r="C77" t="n">
+        <v>30.4626</v>
+      </c>
+      <c r="D77" t="n">
+        <v>2.145507171409663</v>
+      </c>
+      <c r="E77" t="n">
+        <v>0.8916935024125903</v>
+      </c>
+      <c r="F77" t="n">
+        <v>196.0882173045558</v>
+      </c>
+      <c r="G77" t="n">
+        <v>2.154815574775339</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>Store 77</t>
+        </is>
+      </c>
+      <c r="B78" t="n">
+        <v>50.438757</v>
+      </c>
+      <c r="C78" t="n">
+        <v>30.523178</v>
+      </c>
+      <c r="D78" t="n">
+        <v>2.73870130043471</v>
+      </c>
+      <c r="E78" t="n">
+        <v>0.8878610200726241</v>
+      </c>
+      <c r="F78" t="n">
+        <v>700.6528816383816</v>
+      </c>
+      <c r="G78" t="n">
+        <v>2.001865376109662</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>Store 78</t>
+        </is>
+      </c>
+      <c r="B79" t="n">
+        <v>50.400937</v>
+      </c>
+      <c r="C79" t="n">
+        <v>30.631575</v>
+      </c>
+      <c r="D79" t="n">
+        <v>2.301247088636211</v>
+      </c>
+      <c r="E79" t="n">
+        <v>0.454336555662236</v>
+      </c>
+      <c r="F79" t="n">
+        <v>81.46944787104395</v>
+      </c>
+      <c r="G79" t="n">
+        <v>2.715648262368132</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>Store 79</t>
+        </is>
+      </c>
+      <c r="B80" t="n">
+        <v>50.484746</v>
+      </c>
+      <c r="C80" t="n">
+        <v>30.604443</v>
+      </c>
+      <c r="D80" t="n">
+        <v>2.352568386179309</v>
+      </c>
+      <c r="E80" t="n">
+        <v>0.5277437603762941</v>
+      </c>
+      <c r="F80" t="n">
+        <v>183.9299166804091</v>
+      </c>
+      <c r="G80" t="n">
+        <v>2.189641865242966</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>Store 80</t>
+        </is>
+      </c>
+      <c r="B81" t="n">
+        <v>50.340938</v>
+      </c>
+      <c r="C81" t="n">
+        <v>30.550683</v>
+      </c>
+      <c r="D81" t="n">
+        <v>1.973127853599699</v>
+      </c>
+      <c r="E81" t="n">
+        <v>2.90638177831283</v>
+      </c>
+      <c r="F81" t="n">
+        <v>77.58746377793349</v>
+      </c>
+      <c r="G81" t="n">
+        <v>2.096958480484689</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>Store 81</t>
+        </is>
+      </c>
+      <c r="B82" t="n">
+        <v>50.416111</v>
+      </c>
+      <c r="C82" t="n">
+        <v>30.53186</v>
+      </c>
+      <c r="D82" t="n">
+        <v>2.298634783124435</v>
+      </c>
+      <c r="E82" t="n">
+        <v>0.5107173008236937</v>
+      </c>
+      <c r="F82" t="n">
+        <v>283.1046460083572</v>
+      </c>
+      <c r="G82" t="n">
+        <v>2.112721238868338</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>Store 82</t>
+        </is>
+      </c>
+      <c r="B83" t="n">
+        <v>50.421521</v>
+      </c>
+      <c r="C83" t="n">
+        <v>30.649937</v>
+      </c>
+      <c r="D83" t="n">
+        <v>2.633670406051444</v>
+      </c>
+      <c r="E83" t="n">
+        <v>0.7183424235158414</v>
+      </c>
+      <c r="F83" t="n">
+        <v>364.4060496759263</v>
+      </c>
+      <c r="G83" t="n">
+        <v>2.047224998179361</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>Store 83</t>
+        </is>
+      </c>
+      <c r="B84" t="n">
+        <v>50.414165</v>
+      </c>
+      <c r="C84" t="n">
+        <v>30.661806</v>
+      </c>
+      <c r="D84" t="n">
+        <v>2.625209525381881</v>
+      </c>
+      <c r="E84" t="n">
+        <v>1.401597490473213</v>
+      </c>
+      <c r="F84" t="n">
+        <v>275.629483403274</v>
+      </c>
+      <c r="G84" t="n">
+        <v>2.041699877061289</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>Store 84</t>
+        </is>
+      </c>
+      <c r="B85" t="n">
+        <v>50.427168</v>
+      </c>
+      <c r="C85" t="n">
+        <v>30.6392</v>
+      </c>
+      <c r="D85" t="n">
+        <v>2.102433705681336</v>
+      </c>
+      <c r="E85" t="n">
+        <v>1.281295497152117</v>
+      </c>
+      <c r="F85" t="n">
+        <v>574.9729149230561</v>
+      </c>
+      <c r="G85" t="n">
+        <v>2.046166957021552</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>Store 85</t>
+        </is>
+      </c>
+      <c r="B86" t="n">
+        <v>50.427084</v>
+      </c>
+      <c r="C86" t="n">
+        <v>30.459089</v>
+      </c>
+      <c r="D86" t="n">
+        <v>2.392872745402079</v>
+      </c>
+      <c r="E86" t="n">
+        <v>0.9304190840719629</v>
+      </c>
+      <c r="F86" t="n">
+        <v>767.5425027938707</v>
+      </c>
+      <c r="G86" t="n">
+        <v>2.102856172038002</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>Store 86</t>
+        </is>
+      </c>
+      <c r="B87" t="n">
+        <v>50.432254</v>
+      </c>
+      <c r="C87" t="n">
+        <v>30.455303</v>
+      </c>
+      <c r="D87" t="n">
+        <v>2.262925469331832</v>
+      </c>
+      <c r="E87" t="n">
+        <v>0.7577818202135864</v>
+      </c>
+      <c r="F87" t="n">
+        <v>592.1054850029985</v>
+      </c>
+      <c r="G87" t="n">
+        <v>1.967127857152819</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>Store 87</t>
+        </is>
+      </c>
+      <c r="B88" t="n">
+        <v>50.455945</v>
+      </c>
+      <c r="C88" t="n">
+        <v>30.345746</v>
+      </c>
+      <c r="D88" t="n">
+        <v>2.242541428298384</v>
+      </c>
+      <c r="E88" t="n">
+        <v>1.38635274067599</v>
+      </c>
+      <c r="F88" t="n">
+        <v>497.5227946346539</v>
+      </c>
+      <c r="G88" t="n">
+        <v>2.153778331751749</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>Store 88</t>
+        </is>
+      </c>
+      <c r="B89" t="n">
+        <v>50.456321</v>
+      </c>
+      <c r="C89" t="n">
+        <v>30.593928</v>
+      </c>
+      <c r="D89" t="n">
+        <v>2.479143247978613</v>
+      </c>
+      <c r="E89" t="n">
+        <v>0.4779044290256231</v>
+      </c>
+      <c r="F89" t="n">
+        <v>169.9278963427226</v>
+      </c>
+      <c r="G89" t="n">
+        <v>2.574665096101858</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>Store 89</t>
+        </is>
+      </c>
+      <c r="B90" t="n">
+        <v>50.453254</v>
+      </c>
+      <c r="C90" t="n">
+        <v>30.598383</v>
+      </c>
+      <c r="D90" t="n">
+        <v>2.23578087032756</v>
+      </c>
+      <c r="E90" t="n">
+        <v>0.8274475513622221</v>
+      </c>
+      <c r="F90" t="n">
+        <v>226.7532797763145</v>
+      </c>
+      <c r="G90" t="n">
+        <v>2.313808977309332</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>Store 90</t>
+        </is>
+      </c>
+      <c r="B91" t="n">
+        <v>50.472699</v>
+      </c>
+      <c r="C91" t="n">
+        <v>30.406233</v>
+      </c>
+      <c r="D91" t="n">
+        <v>2.236537261488694</v>
+      </c>
+      <c r="E91" t="n">
+        <v>0.9928983073175628</v>
+      </c>
+      <c r="F91" t="n">
+        <v>707.1574362365232</v>
+      </c>
+      <c r="G91" t="n">
+        <v>1.932124142722741</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>Store 91</t>
+        </is>
+      </c>
+      <c r="B92" t="n">
+        <v>50.411725</v>
+      </c>
+      <c r="C92" t="n">
+        <v>30.412683</v>
+      </c>
+      <c r="D92" t="n">
+        <v>2.419625360887743</v>
+      </c>
+      <c r="E92" t="n">
+        <v>1.645569913544903</v>
+      </c>
+      <c r="F92" t="n">
+        <v>299.4168985141046</v>
+      </c>
+      <c r="G92" t="n">
+        <v>2.050800674754141</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>Store 92</t>
+        </is>
+      </c>
+      <c r="B93" t="n">
+        <v>50.47131</v>
+      </c>
+      <c r="C93" t="n">
+        <v>30.517505</v>
+      </c>
+      <c r="D93" t="n">
+        <v>2.485153349903652</v>
+      </c>
+      <c r="E93" t="n">
+        <v>0.3926448022899315</v>
+      </c>
+      <c r="F93" t="n">
+        <v>250.0624105917712</v>
+      </c>
+      <c r="G93" t="n">
+        <v>1.852314152531638</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
